--- a/potential jury members.xlsx
+++ b/potential jury members.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaoan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaoan\Desktop\qualifying-exams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBBF94D-9E80-4052-BA82-BE99756EC2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD7E00B-F609-4A59-952B-833A27688A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="465" windowWidth="16305" windowHeight="14925" xr2:uid="{DC227596-7F3D-484E-9AF9-31BBC870EC93}"/>
+    <workbookView xWindow="11820" yWindow="660" windowWidth="16305" windowHeight="14925" xr2:uid="{DC227596-7F3D-484E-9AF9-31BBC870EC93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="163">
   <si>
     <t>NCKU</t>
   </si>
@@ -45,9 +45,6 @@
     <t>expertise2</t>
   </si>
   <si>
-    <t xml:space="preserve"> Organization Studies</t>
-  </si>
-  <si>
     <t>IT Adoption Strategies</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>expertise4</t>
   </si>
   <si>
-    <t>Interactivity and Consumer Engagement, Consumer Financial Decisions</t>
-  </si>
-  <si>
     <t>Innovation Contests</t>
   </si>
   <si>
@@ -465,23 +459,69 @@
     <t>陳明祺</t>
   </si>
   <si>
-    <t>https://www.soc.nthu.edu.tw/minchi-chen</t>
+    <t>e</t>
+  </si>
+  <si>
+    <t>name_pinyin</t>
+  </si>
+  <si>
+    <t>Lǐxiàndá</t>
+  </si>
+  <si>
+    <t>Kēguānzhōu</t>
+  </si>
+  <si>
+    <t>Zhāngyuánjié</t>
+  </si>
+  <si>
+    <t>Wúqīngyán</t>
+  </si>
+  <si>
+    <t>Huángguófēng</t>
+  </si>
+  <si>
+    <t>Xièkǎiyǔ</t>
+  </si>
+  <si>
+    <t>Zhōngxiànruì</t>
+  </si>
+  <si>
+    <t>Càizōnglín</t>
+  </si>
+  <si>
+    <t>Zhèngyùrén</t>
+  </si>
+  <si>
+    <t>Chénzōngwén</t>
+  </si>
+  <si>
+    <t>Xióngruìméi</t>
+  </si>
+  <si>
+    <t>Sūguóxián</t>
+  </si>
+  <si>
+    <t>Lǐzōngróng</t>
+  </si>
+  <si>
+    <t>Chénmíngqí</t>
+  </si>
+  <si>
+    <t>Organization Studies</t>
+  </si>
+  <si>
+    <t>Interactivity and Consumer Engagement</t>
+  </si>
+  <si>
+    <t>http://mx.nthu.edu.tw/~mincchen/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -497,15 +537,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -527,18 +563,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -854,620 +891,663 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2113F145-CD0B-44D2-98CE-4F5B9DE22277}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="38.28515625" customWidth="1"/>
-    <col min="7" max="8" width="28.140625" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" customWidth="1"/>
-    <col min="10" max="11" width="28.140625" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="28.140625" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" customWidth="1"/>
+    <col min="1" max="2" width="20.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="38" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="28.140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="69.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="G2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="J3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="N4" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="3" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="N6" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" t="s">
-        <v>87</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L9" t="s">
-        <v>91</v>
-      </c>
-      <c r="M9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="H10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="J10" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="H10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" t="s">
-        <v>95</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>113</v>
+      <c r="L10" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="H11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" t="s">
-        <v>107</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>112</v>
       </c>
+      <c r="D12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" t="s">
-        <v>124</v>
-      </c>
-      <c r="J12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K12" s="3" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>126</v>
+      <c r="M14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" t="s">
-        <v>130</v>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H14" t="s">
-        <v>133</v>
-      </c>
-      <c r="J14" t="s">
-        <v>134</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="L14" t="s">
-        <v>135</v>
-      </c>
-      <c r="M14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" t="s">
-        <v>122</v>
-      </c>
-      <c r="I15" t="s">
-        <v>143</v>
-      </c>
-      <c r="J15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M15" t="s">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L4" r:id="rId1" xr:uid="{856F5978-6AB6-4565-A317-4B52E1691F65}"/>
-    <hyperlink ref="L5" r:id="rId2" xr:uid="{D1281FEB-AE8B-4B9B-96C8-9AA63C63FB98}"/>
-    <hyperlink ref="L6" r:id="rId3" xr:uid="{51D3461B-370B-4893-A444-6472D03B01AA}"/>
-    <hyperlink ref="M6" r:id="rId4" xr:uid="{719EBA8D-0220-44D8-9CD9-F7515B0E5964}"/>
-    <hyperlink ref="L7" r:id="rId5" xr:uid="{E8E6C698-A7E5-480A-90EC-C2B7BC51C1E9}"/>
-    <hyperlink ref="M7" r:id="rId6" xr:uid="{04F64BEF-3EC0-44F3-8C09-964107C45187}"/>
-    <hyperlink ref="M8" r:id="rId7" xr:uid="{5BD74C97-C0A4-4623-9B19-846DC32DE1B1}"/>
-    <hyperlink ref="L8" r:id="rId8" xr:uid="{84D76EB0-634A-4C1F-9F50-934BF20FBA01}"/>
-    <hyperlink ref="L9" r:id="rId9" xr:uid="{38E66956-9859-49E0-8E93-164DD4315F12}"/>
-    <hyperlink ref="M10" r:id="rId10" xr:uid="{AEBF415B-53EB-4C86-A4E6-75D79285DE54}"/>
-    <hyperlink ref="L11" r:id="rId11" xr:uid="{D5712A4F-129D-4598-800F-3AEA44028AD8}"/>
-    <hyperlink ref="L10" r:id="rId12" xr:uid="{53793211-31B5-428A-B7E0-4039D057E6FC}"/>
-    <hyperlink ref="L12" r:id="rId13" xr:uid="{7746112E-C3DC-4C3C-9742-038160DAA7A9}"/>
-    <hyperlink ref="K15" r:id="rId14" xr:uid="{9A307A37-58A1-4B28-ACCC-97CB2C1179EF}"/>
-    <hyperlink ref="L15" r:id="rId15" xr:uid="{9D66D38C-0BE5-40AE-B585-48ECB38AB637}"/>
+    <hyperlink ref="N6" r:id="rId1" xr:uid="{719EBA8D-0220-44D8-9CD9-F7515B0E5964}"/>
+    <hyperlink ref="N7" r:id="rId2" xr:uid="{04F64BEF-3EC0-44F3-8C09-964107C45187}"/>
+    <hyperlink ref="N8" r:id="rId3" xr:uid="{5BD74C97-C0A4-4623-9B19-846DC32DE1B1}"/>
+    <hyperlink ref="N10" r:id="rId4" xr:uid="{AEBF415B-53EB-4C86-A4E6-75D79285DE54}"/>
+    <hyperlink ref="L15" r:id="rId5" xr:uid="{9A307A37-58A1-4B28-ACCC-97CB2C1179EF}"/>
+    <hyperlink ref="L10" r:id="rId6" xr:uid="{8EA8D04D-1713-499F-96E3-023018F8228D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>